--- a/src/main/resources/xlsxFile/dataFile.xlsx
+++ b/src/main/resources/xlsxFile/dataFile.xlsx
@@ -34,16 +34,16 @@
     <t xml:space="preserve">cruiseLines</t>
   </si>
   <si>
-    <t xml:space="preserve">australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/01/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 To 6 night(s) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carnival Cruise Lines </t>
+    <t xml:space="preserve">Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 To 6 night(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSC Cruises</t>
   </si>
 </sst>
 </file>
@@ -54,7 +54,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -75,6 +75,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF17C6A3"/>
+      <name val="Consolas"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF17C6A3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,12 +137,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -141,6 +154,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF17C6A3"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -152,7 +225,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -174,7 +247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
